--- a/Shading Nets/Shock/Shading_nets.xlsx
+++ b/Shading Nets/Shock/Shading_nets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\New Cases\Shading Nets\Shock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Shading Nets\Shock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EB6512-FB77-4E5A-8A33-1656CBD11260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F8EE6B-3586-4B68-A12F-3E6674B83A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="224">
   <si>
     <t>level_row</t>
   </si>
@@ -702,9 +702,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>0.5-1</t>
   </si>
   <si>
     <t>aggregated</t>
@@ -719,8 +716,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -992,25 +989,10 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,6 +1012,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1349,7 +1346,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,23 +1358,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="43">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="40">
         <f>main!C18</f>
-        <v>537.5</v>
+        <v>0.99999999999998657</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1400,7 +1397,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
@@ -1435,52 +1432,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>223</v>
+      <c r="H1" s="38" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="43">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="41">
         <f>-main!C19</f>
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="H2" s="48" t="s">
+        <v>-4.6511627906976118E-5</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2204,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,7 +2244,7 @@
         <v>218</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>176</v>
@@ -2257,7 +2254,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -2281,7 +2278,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="15" t="s">
         <v>191</v>
       </c>
@@ -2300,7 +2297,7 @@
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="15" t="s">
         <v>193</v>
       </c>
@@ -2323,7 +2320,7 @@
       <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="15" t="s">
         <v>195</v>
       </c>
@@ -2344,7 +2341,7 @@
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="15" t="s">
         <v>183</v>
       </c>
@@ -2361,7 +2358,7 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="15" t="s">
         <v>182</v>
       </c>
@@ -2378,7 +2375,7 @@
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="15" t="s">
         <v>209</v>
       </c>
@@ -2397,7 +2394,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="15" t="s">
         <v>214</v>
       </c>
@@ -2423,7 +2420,7 @@
         <v>209</v>
       </c>
       <c r="C10" s="29">
-        <v>500</v>
+        <v>0.93023255813952233</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -2435,7 +2432,7 @@
       <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="47" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -2443,7 +2440,7 @@
       </c>
       <c r="C11" s="33">
         <f>C10/C8</f>
-        <v>1</v>
+        <v>1.8604651162790447E-3</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -2455,7 +2452,7 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="14" t="s">
         <v>210</v>
       </c>
@@ -2486,18 +2483,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="37">
         <v>0</v>
       </c>
       <c r="G13" s="23">
@@ -2515,7 +2512,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="48" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -2523,7 +2520,7 @@
       </c>
       <c r="C14" s="25">
         <f>C12*C10</f>
-        <v>500</v>
+        <v>0.93023255813952233</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>197</v>
@@ -2537,13 +2534,13 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="20" t="s">
         <v>196</v>
       </c>
       <c r="C15" s="25">
         <f>C9/C10</f>
-        <v>2E-3</v>
+        <v>1.0750000000000146</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -2555,13 +2552,13 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="20" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="25">
         <f>C2*(C14*10^4/C3)^C5/10^6</f>
-        <v>537.5</v>
+        <v>0.99999999999998657</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>185</v>
@@ -2575,7 +2572,7 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="20" t="s">
         <v>201</v>
       </c>
@@ -2595,7 +2592,7 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -2603,7 +2600,7 @@
       </c>
       <c r="C18" s="24">
         <f>C16</f>
-        <v>537.5</v>
+        <v>0.99999999999998657</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>185</v>
@@ -2619,13 +2616,13 @@
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="17" t="s">
         <v>181</v>
       </c>
       <c r="C19" s="32">
         <f>C13*C11</f>
-        <v>2.5000000000000001E-2</v>
+        <v>4.6511627906976118E-5</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -2663,16 +2660,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J33">
-        <f>(140-75)/5</f>
-        <v>13</v>
-      </c>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K33" s="35"/>
     </row>
   </sheetData>
